--- a/examples/Communication-Exercises/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Communication-Exercises/Config/Excel/Server/SceneConfig.xlsx
@@ -1,17 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/examples/Communication-Exercises/Config/Excel/Server/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D73682D-7706-8D45-B4D5-F03DA1A4ACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10670"/>
+    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfig" sheetId="8" r:id="rId1"/>
     <sheet name="SceneTypeConfig" sheetId="9" r:id="rId2"/>
     <sheet name="SceneSubTypeConfig" sheetId="10" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -62,7 +80,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
       </rPr>
       <t>Scene</t>
     </r>
@@ -145,7 +162,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
       </rPr>
       <t>TCP</t>
     </r>
@@ -163,16 +179,12 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
       </rPr>
       <t>KCP</t>
     </r>
   </si>
   <si>
     <t>Gate</t>
-  </si>
-  <si>
-    <t>KCP</t>
   </si>
   <si>
     <t>Addressable</t>
@@ -218,19 +230,19 @@
       <t>类型</t>
     </r>
   </si>
+  <si>
+    <t>TCP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,7 +254,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -263,158 +275,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,198 +309,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399395733512375"/>
+        <fgColor theme="4" tint="0.39936521500289923"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599963377788629"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -656,255 +356,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,34 +378,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -956,70 +408,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00E992DF"/>
+      <color rgb="FFE992DF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1277,26 +688,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="20.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="24.1666666666667" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="8" width="22" customWidth="1"/>
-    <col min="9" max="11" width="21.1666666666667" customWidth="1"/>
+    <col min="9" max="11" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1306,16 +718,16 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -1334,12 +746,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="1:11">
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="9"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1348,14 +760,14 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.5" spans="2:11">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="18">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>0</v>
       </c>
       <c r="E3" s="3">
@@ -1380,14 +792,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16.5" spans="2:11">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="18">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1412,14 +824,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.5" spans="2:11">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="16">
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1444,17 +856,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.5" spans="2:11">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="16">
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="2"/>
@@ -1466,14 +878,14 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.5" spans="2:11">
-      <c r="B7" s="16">
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="16">
+      <c r="B7" s="14">
         <v>1</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <f t="shared" ref="D7:D11" si="0">_xlfn.BITXOR(0,_xlfn.BITXOR(_xlfn.BITLSHIFT(E7,16),_xlfn.BITLSHIFT(C7,34)))</f>
         <v>17246978048</v>
       </c>
@@ -1489,8 +901,8 @@
       <c r="H7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>34</v>
+      <c r="I7" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="J7" s="4">
         <v>20000</v>
@@ -1499,16 +911,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.5" spans="2:11">
-      <c r="B8" s="16">
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="16">
+      <c r="B8" s="14">
         <f>B7+1</f>
         <v>2</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="17">
-        <f t="shared" ref="D8:D10" si="1">_xlfn.BITXOR(0,_xlfn.BITXOR(_xlfn.BITLSHIFT(E8,16),_xlfn.BITLSHIFT(C8,34)))</f>
+      <c r="D8" s="15">
+        <f t="shared" ref="D8:D9" si="1">_xlfn.BITXOR(0,_xlfn.BITXOR(_xlfn.BITLSHIFT(E8,16),_xlfn.BITLSHIFT(C8,34)))</f>
         <v>34493956096</v>
       </c>
       <c r="E8" s="4">
@@ -1518,26 +930,26 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="15.5" spans="2:11">
-      <c r="B9" s="16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="16">
+      <c r="B9" s="14">
         <f t="shared" ref="B9:B11" si="2">B8+1</f>
         <v>3</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <f t="shared" si="1"/>
         <v>68920803328</v>
       </c>
@@ -1548,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="15.5" spans="2:11">
-      <c r="B10" s="16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="16">
+      <c r="B10" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -1568,7 +980,7 @@
         <f>C9+1</f>
         <v>5</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>86167781376</v>
       </c>
@@ -1579,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" ht="15.5" spans="2:11">
-      <c r="B11" s="16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16">
+      <c r="B11" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1599,7 +1011,7 @@
         <f>C10+1</f>
         <v>6</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
         <v>103414759424</v>
       </c>
@@ -1610,54 +1022,63 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="J11" s="4">
         <v>20001</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7 G8 G9 G10 G11">
-      <formula1>SceneTypeConfig!$B$3:$B$1048576</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7 H8 H9 H10 H11">
-      <formula1>SceneSubTypeConfig!$B$3:$B$1048576</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>SceneTypeConfig!$B$3:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>G7 G8 G9 G10 G11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>SceneSubTypeConfig!$B$3:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>H7 H8 H9 H10 H11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="21.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1668,7 +1089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.5" spans="1:3">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1679,7 +1100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:3">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1690,39 +1111,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.5" spans="1:3">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15.5" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A5" s="4">
         <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15.5" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A6" s="4">
         <f t="shared" ref="A6:A7" si="0">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1731,47 +1152,46 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="21.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.5" spans="1:3">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1782,7 +1202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:3">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1793,39 +1213,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.5" spans="1:3">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15.5" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A5" s="4">
         <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15.5" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A6" s="4">
         <f t="shared" ref="A6:A7" si="0">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1834,14 +1254,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/examples/Communication-Exercises/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Communication-Exercises/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/examples/Communication-Exercises/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D73682D-7706-8D45-B4D5-F03DA1A4ACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424D69FB-762F-684E-B1E5-6F81F705FEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,6 +80,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
       <t>Scene</t>
     </r>
@@ -88,6 +89,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>类型</t>
@@ -146,6 +148,24 @@
   </si>
   <si>
     <t>ServerConfig的Id</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Addressable</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Realm</t>
   </si>
   <si>
     <r>
@@ -153,6 +173,39 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Scene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分为</t>
@@ -162,6 +215,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
       <t>TCP</t>
     </r>
@@ -170,6 +224,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -179,60 +234,15 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
       <t>KCP</t>
     </r>
-  </si>
-  <si>
-    <t>Gate</t>
-  </si>
-  <si>
-    <t>Addressable</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>MAP</t>
-  </si>
-  <si>
-    <t>Chat</t>
-  </si>
-  <si>
-    <t>Realm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Scene</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-  </si>
-  <si>
-    <t>TCP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>KCP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -240,9 +250,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -260,24 +270,22 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
     </font>
     <font>
       <sz val="9"/>
@@ -289,7 +297,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Consolas"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -378,28 +386,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,10 +416,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,7 +706,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -872,8 +880,8 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>32</v>
+      <c r="I6" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -896,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J7" s="4">
         <v>20000</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="16">
@@ -930,15 +938,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="16">
@@ -960,15 +968,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="16">
@@ -991,15 +999,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16">
@@ -1022,23 +1030,23 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J11" s="4">
         <v>20001</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -1105,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="16">
@@ -1116,10 +1124,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="16">
@@ -1128,10 +1136,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="16">
@@ -1140,10 +1148,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1152,14 +1160,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1185,7 +1193,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>17</v>
@@ -1207,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="16">
@@ -1218,10 +1226,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="16">
@@ -1230,10 +1238,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="16">
@@ -1242,10 +1250,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1254,14 +1262,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/examples/Communication-Exercises/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Communication-Exercises/Config/Excel/Server/SceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/examples/Communication-Exercises/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424D69FB-762F-684E-B1E5-6F81F705FEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3C6EAE-EB75-4740-AE8C-8207A2BCA4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfig" sheetId="8" r:id="rId1"/>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>路由Id</t>
-  </si>
-  <si>
-    <t>ServerId</t>
   </si>
   <si>
     <t>世界Id</t>
@@ -242,6 +236,14 @@
   </si>
   <si>
     <t>KCP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局EntityId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由ID:ServerId</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +708,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -808,80 +810,80 @@
         <v>9</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="16">
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="16">
       <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -904,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="4">
         <v>20000</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="16">
@@ -938,15 +940,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="16">
@@ -968,15 +970,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="16">
@@ -999,15 +1001,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16">
@@ -1030,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11" s="4">
         <v>20001</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1091,21 +1093,21 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="16">
@@ -1113,10 +1115,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="16">
@@ -1124,10 +1126,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="16">
@@ -1136,10 +1138,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="16">
@@ -1148,10 +1150,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1160,10 +1162,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1193,21 +1195,21 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="16">
@@ -1215,10 +1217,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="16">
@@ -1226,10 +1228,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="16">
@@ -1238,10 +1240,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="16">
@@ -1250,10 +1252,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1262,10 +1264,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
